--- a/app/Restaurant_Mau.xlsx
+++ b/app/Restaurant_Mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Projects\Java\AssignmentProj\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CCAA60-78CF-47B0-9B0C-356F8E6C1E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF7CB8-3293-4D0E-A844-471C0336F1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="34776" windowHeight="19656" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1376,9 @@
       <c r="V5" t="s">
         <v>71</v>
       </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
       <c r="X5" s="1">
         <v>0.89583333333333337</v>
       </c>
